--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>16838.34481048651</v>
+        <v>166.4900249556675</v>
       </c>
       <c r="R2">
-        <v>151545.1032943786</v>
+        <v>1498.410224601007</v>
       </c>
       <c r="S2">
-        <v>0.19394309853408</v>
+        <v>0.006327128338333687</v>
       </c>
       <c r="T2">
-        <v>0.19394309853408</v>
+        <v>0.006327128338333687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>15910.63610321822</v>
+        <v>289.9710404216993</v>
       </c>
       <c r="R3">
-        <v>143195.724928964</v>
+        <v>2609.739363795294</v>
       </c>
       <c r="S3">
-        <v>0.1832578023693046</v>
+        <v>0.01101978324309082</v>
       </c>
       <c r="T3">
-        <v>0.1832578023693047</v>
+        <v>0.01101978324309082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>18660.89938425291</v>
+        <v>358.2234538215871</v>
       </c>
       <c r="R4">
-        <v>167948.0944582762</v>
+        <v>3224.011084394284</v>
       </c>
       <c r="S4">
-        <v>0.2149351785313717</v>
+        <v>0.01361358295629937</v>
       </c>
       <c r="T4">
-        <v>0.2149351785313718</v>
+        <v>0.01361358295629938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>5933.295240397537</v>
+        <v>3218.97567823559</v>
       </c>
       <c r="R5">
-        <v>53399.65716357782</v>
+        <v>28970.78110412031</v>
       </c>
       <c r="S5">
-        <v>0.06833935736507581</v>
+        <v>0.1223308858269109</v>
       </c>
       <c r="T5">
-        <v>0.06833935736507582</v>
+        <v>0.1223308858269109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>5606.400303914095</v>
+        <v>5606.400303914094</v>
       </c>
       <c r="R6">
-        <v>50457.60273522686</v>
+        <v>50457.60273522685</v>
       </c>
       <c r="S6">
-        <v>0.06457420006545711</v>
+        <v>0.2130602974465464</v>
       </c>
       <c r="T6">
-        <v>0.06457420006545712</v>
+        <v>0.2130602974465465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>6575.505297241033</v>
+        <v>6926.016051305696</v>
       </c>
       <c r="R7">
-        <v>59179.54767516929</v>
+        <v>62334.14446175127</v>
       </c>
       <c r="S7">
-        <v>0.0757362963003331</v>
+        <v>0.2632097174688934</v>
       </c>
       <c r="T7">
-        <v>0.07573629630033313</v>
+        <v>0.2632097174688934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>5664.973415669328</v>
+        <v>1992.033185038946</v>
       </c>
       <c r="R8">
-        <v>50984.76074102395</v>
+        <v>17928.29866535052</v>
       </c>
       <c r="S8">
-        <v>0.06524884183770055</v>
+        <v>0.07570333189220885</v>
       </c>
       <c r="T8">
-        <v>0.06524884183770056</v>
+        <v>0.07570333189220885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>5352.86167171176</v>
+        <v>3469.468728676718</v>
       </c>
       <c r="R9">
-        <v>48175.75504540584</v>
+        <v>31225.21855809047</v>
       </c>
       <c r="S9">
-        <v>0.06165395650940461</v>
+        <v>0.131850385138799</v>
       </c>
       <c r="T9">
-        <v>0.06165395650940463</v>
+        <v>0.131850385138799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>6278.140762293754</v>
+        <v>4286.100670967415</v>
       </c>
       <c r="R10">
-        <v>56503.26686064379</v>
+        <v>38574.90603870674</v>
       </c>
       <c r="S10">
-        <v>0.0723112684872725</v>
+        <v>0.1628848876889174</v>
       </c>
       <c r="T10">
-        <v>0.07231126848727251</v>
+        <v>0.1628848876889175</v>
       </c>
     </row>
   </sheetData>
